--- a/OilGas/DocsWeb/範本_日_自行安全檢查表_113年系統.xlsx
+++ b/OilGas/DocsWeb/範本_日_自行安全檢查表_113年系統.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\OilGas\OilGas\DocsWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC287D7C-797F-478D-A9E4-9D4A8D230353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA168E47-EE94-4B4A-95CC-B6361637C5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -203,10 +203,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Gas_Name加油站營運設備每日自行安全檢查表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A01_Way</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -578,6 +574,10 @@
   <si>
     <t>油氣回收設
 備(第1及第2階段)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Name  加油站營運設備每日自行安全檢查表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -700,39 +700,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -743,11 +714,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1032,7 +1032,7 @@
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1051,51 +1051,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="A1" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="H2" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
       <c r="H3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1107,689 +1107,682 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="4" t="s">
+    </row>
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="4" t="s">
+    </row>
+    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="4" t="s">
+    </row>
+    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="4" t="s">
+    </row>
+    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="4" t="s">
+    </row>
+    <row r="11" spans="1:10" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="J11" s="4" t="s">
+    </row>
+    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="J12" s="4" t="s">
+    </row>
+    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J13" s="4" t="s">
+    </row>
+    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="J14" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J14" s="4" t="s">
+    </row>
+    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="J15" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J15" s="4" t="s">
+    </row>
+    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J16" s="4" t="s">
+    </row>
+    <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="J17" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="J17" s="4" t="s">
+    </row>
+    <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="J18" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="J18" s="4" t="s">
+    </row>
+    <row r="19" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="J19" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="J19" s="4" t="s">
+    </row>
+    <row r="20" spans="1:10" ht="32.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="32.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="J20" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J20" s="4" t="s">
+    </row>
+    <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="J21" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="J21" s="4" t="s">
+    </row>
+    <row r="22" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="J22" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="J22" s="4" t="s">
+    </row>
+    <row r="23" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="3" t="s">
+      <c r="I23" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="J23" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="J23" s="4" t="s">
+    </row>
+    <row r="24" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="J24" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="J24" s="4" t="s">
+    </row>
+    <row r="25" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="3" t="s">
+      <c r="I25" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="J25" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="J25" s="4" t="s">
+    </row>
+    <row r="26" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="5" t="s">
+      <c r="I26" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="J29" s="4" t="s">
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="3" t="s">
+      <c r="I30" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="J30" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="J30" s="4" t="s">
+    </row>
+    <row r="31" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="3" t="s">
+      <c r="I31" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="J31" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="J31" s="4" t="s">
+    </row>
+    <row r="32" spans="1:10" ht="32.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="20" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="32.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="9" t="s">
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="3" t="s">
+      <c r="I32" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="J32" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="J32" s="4" t="s">
-        <v>130</v>
-      </c>
     </row>
     <row r="33" spans="1:10" ht="119.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
     </row>
     <row r="34" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="17"/>
     </row>
     <row r="35" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="17"/>
     </row>
     <row r="36" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="17"/>
     </row>
     <row r="37" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
     </row>
     <row r="38" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
     </row>
     <row r="39" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
     </row>
     <row r="40" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
     </row>
     <row r="41" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="12"/>
-      <c r="B41" s="13"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="17"/>
     </row>
     <row r="42" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="12"/>
-      <c r="B42" s="13"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="17"/>
     </row>
     <row r="43" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="12"/>
-      <c r="B43" s="13"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="17"/>
     </row>
     <row r="44" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="12"/>
-      <c r="B44" s="13"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A4:B9"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="A22:B24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="A26:B29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A43:B43"/>
     <mergeCell ref="A15:B18"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
@@ -1806,23 +1799,30 @@
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="C31:G31"/>
     <mergeCell ref="A30:B31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="A26:B29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="A22:B24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A4:B9"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="A12:B14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/OilGas/DocsWeb/範本_日_自行安全檢查表_113年系統.xlsx
+++ b/OilGas/DocsWeb/範本_日_自行安全檢查表_113年系統.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\OilGas\OilGas\DocsWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA168E47-EE94-4B4A-95CC-B6361637C5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B71B01D-626D-4B6D-A2E8-9FD23255425F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -700,37 +700,25 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -740,14 +728,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1032,70 +1032,70 @@
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.796875" style="1"/>
-    <col min="5" max="5" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.796875" style="1"/>
-    <col min="7" max="7" width="14.8984375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.09765625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.796875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.296875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-    </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="22"/>
       <c r="G2" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="14"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="I2" s="19"/>
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
       <c r="H3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1106,18 +1106,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
       <c r="H4" s="3" t="s">
         <v>42</v>
       </c>
@@ -1128,16 +1128,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="6" t="s">
+    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="3" t="s">
         <v>45</v>
       </c>
@@ -1148,16 +1148,16 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="6" t="s">
+    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
       <c r="H6" s="3" t="s">
         <v>48</v>
       </c>
@@ -1168,16 +1168,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="6" t="s">
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="3" t="s">
         <v>51</v>
       </c>
@@ -1188,16 +1188,16 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="6" t="s">
+    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
       <c r="H8" s="3" t="s">
         <v>54</v>
       </c>
@@ -1208,16 +1208,16 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="6" t="s">
+    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
       <c r="H9" s="3" t="s">
         <v>57</v>
       </c>
@@ -1228,18 +1228,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="3" t="s">
         <v>60</v>
       </c>
@@ -1250,16 +1250,16 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="5" t="s">
+    <row r="11" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
       <c r="H11" s="3" t="s">
         <v>63</v>
       </c>
@@ -1270,18 +1270,18 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
       <c r="H12" s="3" t="s">
         <v>66</v>
       </c>
@@ -1292,16 +1292,16 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="6" t="s">
+    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="3" t="s">
         <v>69</v>
       </c>
@@ -1312,16 +1312,16 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="6" t="s">
+    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
       <c r="H14" s="3" t="s">
         <v>72</v>
       </c>
@@ -1332,18 +1332,18 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
       <c r="H15" s="3" t="s">
         <v>75</v>
       </c>
@@ -1354,16 +1354,16 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="6" t="s">
+    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
       <c r="H16" s="3" t="s">
         <v>78</v>
       </c>
@@ -1374,16 +1374,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="6" t="s">
+    <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
       <c r="H17" s="3" t="s">
         <v>81</v>
       </c>
@@ -1394,16 +1394,16 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="6" t="s">
+    <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
       <c r="H18" s="3" t="s">
         <v>84</v>
       </c>
@@ -1414,18 +1414,18 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="6" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
       <c r="H19" s="3" t="s">
         <v>87</v>
       </c>
@@ -1436,16 +1436,16 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="32.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="5" t="s">
+    <row r="20" spans="1:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
       <c r="H20" s="3" t="s">
         <v>90</v>
       </c>
@@ -1456,16 +1456,16 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="6" t="s">
+    <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
       <c r="H21" s="3" t="s">
         <v>93</v>
       </c>
@@ -1476,18 +1476,18 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
+    <row r="22" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="6" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
       <c r="H22" s="3" t="s">
         <v>96</v>
       </c>
@@ -1498,16 +1498,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="6" t="s">
+    <row r="23" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
       <c r="H23" s="3" t="s">
         <v>99</v>
       </c>
@@ -1518,16 +1518,16 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="6" t="s">
+    <row r="24" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
       <c r="H24" s="3" t="s">
         <v>102</v>
       </c>
@@ -1538,18 +1538,18 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="6" t="s">
+      <c r="B25" s="7"/>
+      <c r="C25" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
       <c r="H25" s="3" t="s">
         <v>105</v>
       </c>
@@ -1560,18 +1560,18 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
+    <row r="26" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="6" t="s">
+      <c r="B26" s="7"/>
+      <c r="C26" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
       <c r="H26" s="3" t="s">
         <v>108</v>
       </c>
@@ -1582,16 +1582,16 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="6" t="s">
+    <row r="27" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
       <c r="H27" s="3" t="s">
         <v>111</v>
       </c>
@@ -1602,16 +1602,16 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="6" t="s">
+    <row r="28" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
       <c r="H28" s="3" t="s">
         <v>114</v>
       </c>
@@ -1622,16 +1622,16 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="6" t="s">
+    <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
       <c r="H29" s="3" t="s">
         <v>117</v>
       </c>
@@ -1642,18 +1642,18 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
+    <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="6" t="s">
+      <c r="B30" s="7"/>
+      <c r="C30" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
       <c r="H30" s="3" t="s">
         <v>120</v>
       </c>
@@ -1664,16 +1664,16 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="6" t="s">
+    <row r="31" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
       <c r="H31" s="3" t="s">
         <v>123</v>
       </c>
@@ -1684,18 +1684,18 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="32.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
+    <row r="32" spans="1:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="20" t="s">
+      <c r="B32" s="7"/>
+      <c r="C32" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="22"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="11"/>
       <c r="H32" s="3" t="s">
         <v>127</v>
       </c>
@@ -1706,83 +1706,90 @@
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="119.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="18" t="s">
+    <row r="33" spans="1:10" ht="119.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-    </row>
-    <row r="34" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
-    </row>
-    <row r="35" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17"/>
-    </row>
-    <row r="36" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17"/>
-    </row>
-    <row r="37" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="16"/>
-      <c r="B37" s="17"/>
-    </row>
-    <row r="38" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="16"/>
-      <c r="B38" s="17"/>
-    </row>
-    <row r="39" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17"/>
-    </row>
-    <row r="40" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17"/>
-    </row>
-    <row r="41" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="16"/>
-      <c r="B41" s="17"/>
-    </row>
-    <row r="42" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="16"/>
-      <c r="B42" s="17"/>
-    </row>
-    <row r="43" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="16"/>
-      <c r="B43" s="17"/>
-    </row>
-    <row r="44" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="16"/>
-      <c r="B44" s="17"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+    </row>
+    <row r="34" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+    </row>
+    <row r="35" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+    </row>
+    <row r="36" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
+    </row>
+    <row r="37" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+    </row>
+    <row r="38" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+    </row>
+    <row r="39" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+    </row>
+    <row r="40" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" s="13"/>
+    </row>
+    <row r="41" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
+    </row>
+    <row r="42" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
+    </row>
+    <row r="43" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+    </row>
+    <row r="44" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="12"/>
+      <c r="B44" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="A22:B24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="A26:B29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A4:B9"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C14:G14"/>
     <mergeCell ref="A15:B18"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
@@ -1799,30 +1806,23 @@
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="C31:G31"/>
     <mergeCell ref="A30:B31"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A4:B9"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="A26:B29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="A22:B24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
